--- a/textbook/public/merged.xlsx
+++ b/textbook/public/merged.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,17 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Twelve cells merged together.</t>
-  </si>
-  <si>
-    <t>Two merged cells.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -356,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -364,17 +353,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Twelve cells merged together.</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>1</v>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Two merged cells.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>